--- a/CedoAssignment/doc/measurements.xlsx
+++ b/CedoAssignment/doc/measurements.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>trials ( x 10 internal runs)</t>
   </si>
@@ -36,10 +36,265 @@
     <t>best dissimilarity solutions</t>
   </si>
   <si>
-    <t xml:space="preserve">average of 10 </t>
-  </si>
-  <si>
-    <t>average of 10</t>
+    <t>number of regions</t>
+  </si>
+  <si>
+    <t>10 th solution</t>
+  </si>
+  <si>
+    <t>=================================</t>
+  </si>
+  <si>
+    <t>9 th solution</t>
+  </si>
+  <si>
+    <t>8 th solution</t>
+  </si>
+  <si>
+    <t>7 th solution</t>
+  </si>
+  <si>
+    <t>6 th solution</t>
+  </si>
+  <si>
+    <t>5 th solution</t>
+  </si>
+  <si>
+    <t>4 th solution</t>
+  </si>
+  <si>
+    <t>3 th solution</t>
+  </si>
+  <si>
+    <t>2 th solution</t>
+  </si>
+  <si>
+    <t>1 th solution</t>
+  </si>
+  <si>
+    <t>x1 : 0,4983290413832182</t>
+  </si>
+  <si>
+    <t>x1 : 1,5328379224503037</t>
+  </si>
+  <si>
+    <t>x2 : 1,5996824108675372</t>
+  </si>
+  <si>
+    <t>x2 : 6,244807731299549</t>
+  </si>
+  <si>
+    <t>value : 0,35452703632530264</t>
+  </si>
+  <si>
+    <t>value : 0,15461214817210242</t>
+  </si>
+  <si>
+    <t>x1 : 0,4981869972759391</t>
+  </si>
+  <si>
+    <t>x1 : 3,343677224344043</t>
+  </si>
+  <si>
+    <t>x2 : 1,587716389553228</t>
+  </si>
+  <si>
+    <t>x2 : 1,9854481859103712</t>
+  </si>
+  <si>
+    <t>value : 0,3575875855562435</t>
+  </si>
+  <si>
+    <t>value : 0,16351421169817598</t>
+  </si>
+  <si>
+    <t>x1 : 0,5160568892708862</t>
+  </si>
+  <si>
+    <t>x1 : 4,706128531738939</t>
+  </si>
+  <si>
+    <t>x2 : 1,4572655677907458</t>
+  </si>
+  <si>
+    <t>x2 : 2,978088546340932</t>
+  </si>
+  <si>
+    <t>value : 0,35773865446550773</t>
+  </si>
+  <si>
+    <t>value : 0,1701542601120513</t>
+  </si>
+  <si>
+    <t>x1 : 1,6395219494404212</t>
+  </si>
+  <si>
+    <t>x1 : 3,136998074523094</t>
+  </si>
+  <si>
+    <t>x2 : 0,4784409150810687</t>
+  </si>
+  <si>
+    <t>x2 : 4,725410134195111</t>
+  </si>
+  <si>
+    <t>value : 0,35926494523365426</t>
+  </si>
+  <si>
+    <t>value : 0,17624106803056996</t>
+  </si>
+  <si>
+    <t>x1 : 1,6886737350828682</t>
+  </si>
+  <si>
+    <t>x1 : 2,966509578401751</t>
+  </si>
+  <si>
+    <t>x2 : 0,4548324728808605</t>
+  </si>
+  <si>
+    <t>x2 : 1,0953231171311415</t>
+  </si>
+  <si>
+    <t>value : 0,3597357491370174</t>
+  </si>
+  <si>
+    <t>value : 0,18270893744259767</t>
+  </si>
+  <si>
+    <t>x1 : 0,4908667551977728</t>
+  </si>
+  <si>
+    <t>x1 : 0,2666236010193201</t>
+  </si>
+  <si>
+    <t>x2 : 1,5733463547777702</t>
+  </si>
+  <si>
+    <t>x2 : 4,700426430409685</t>
+  </si>
+  <si>
+    <t>value : 0,367049137601901</t>
+  </si>
+  <si>
+    <t>value : 0,18388211292643233</t>
+  </si>
+  <si>
+    <t>x1 : 0,4830281944875092</t>
+  </si>
+  <si>
+    <t>x1 : 4,668339443653848</t>
+  </si>
+  <si>
+    <t>x2 : 1,5982204528555743</t>
+  </si>
+  <si>
+    <t>x2 : 0,23843021058682884</t>
+  </si>
+  <si>
+    <t>value : 0,3676930575986243</t>
+  </si>
+  <si>
+    <t>value : 0,18994715796992132</t>
+  </si>
+  <si>
+    <t>x1 : 1,5257629041355831</t>
+  </si>
+  <si>
+    <t>x1 : 1,3439750369577748</t>
+  </si>
+  <si>
+    <t>x2 : 0,494918435446541</t>
+  </si>
+  <si>
+    <t>x2 : 2,9374461698004444</t>
+  </si>
+  <si>
+    <t>value : 0,37192737895008804</t>
+  </si>
+  <si>
+    <t>value : 0,25541266541931507</t>
+  </si>
+  <si>
+    <t>x1 : 0,4958836379623901</t>
+  </si>
+  <si>
+    <t>x1 : 0,4712243782325628</t>
+  </si>
+  <si>
+    <t>x2 : 1,5161989180183815</t>
+  </si>
+  <si>
+    <t>x2 : 1,6375417907458623</t>
+  </si>
+  <si>
+    <t>value : 0,37227682210347246</t>
+  </si>
+  <si>
+    <t>value : 0,36575294369034106</t>
+  </si>
+  <si>
+    <t>x1 : 0,47139723908020864</t>
+  </si>
+  <si>
+    <t>x1 : 1,6177492127943152</t>
+  </si>
+  <si>
+    <t>x2 : 1,6105687661753234</t>
+  </si>
+  <si>
+    <t>x2 : 0,4674567064615701</t>
+  </si>
+  <si>
+    <t>value : 0,3739589345826803</t>
+  </si>
+  <si>
+    <t>value : 0,3750824011016395</t>
+  </si>
+  <si>
+    <t>Dmin</t>
+  </si>
+  <si>
+    <t>Dsim</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.015</t>
   </si>
 </sst>
 </file>
@@ -47,9 +302,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,15 +324,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -105,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -117,7 +363,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -125,10 +371,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -430,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,106 +918,681 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>100</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="5">
+        <v>0.37352969658740698</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.37919358143600002</v>
+      </c>
+      <c r="D18" s="3">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.37420939753494398</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.37906526190164103</v>
+      </c>
+      <c r="G18" s="3">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>200</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
+        <v>400</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.37437268920408001</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.37917821189162998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.37346864391372497</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.37877462669879097</v>
+      </c>
+      <c r="G19" s="3">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>500</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
+        <v>900</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.37294113239065302</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.37910998820053798</v>
+      </c>
+      <c r="D20" s="3">
+        <v>54</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.37273005255427899</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.37918200361737198</v>
+      </c>
+      <c r="G20" s="3">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
+        <v>1600</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.37366429607054302</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.37911772366573399</v>
+      </c>
+      <c r="D21" s="3">
+        <v>59</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.37403256767814003</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.37905366129350798</v>
+      </c>
+      <c r="G21" s="3">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3"/>
+        <v>2500</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.36617519834138701</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.379123932615544</v>
+      </c>
+      <c r="D22" s="3">
+        <v>65</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.36631369654015999</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.379109331814795</v>
+      </c>
+      <c r="G22" s="3">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>5000</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>10000</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>20000</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
